--- a/artfynd/A 6359-2021.xlsx
+++ b/artfynd/A 6359-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97633011</v>
+        <v>97633008</v>
       </c>
       <c r="B2" t="n">
-        <v>76863</v>
+        <v>96354</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>498</v>
+        <v>221952</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>398704.3123741738</v>
+        <v>398956.7786445262</v>
       </c>
       <c r="R2" t="n">
-        <v>6788848.641365388</v>
+        <v>6788881.850361901</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97633008</v>
+        <v>97633011</v>
       </c>
       <c r="B3" t="n">
-        <v>96354</v>
+        <v>76863</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221952</v>
+        <v>498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>398956.7786445262</v>
+        <v>398704.3123741738</v>
       </c>
       <c r="R3" t="n">
-        <v>6788881.850361901</v>
+        <v>6788848.641365388</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97633013</v>
+        <v>97633015</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>398510.0508583009</v>
+        <v>398672.5184773419</v>
       </c>
       <c r="R4" t="n">
-        <v>6788941.975751169</v>
+        <v>6788901.13211614</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97633015</v>
+        <v>97633014</v>
       </c>
       <c r="B5" t="n">
-        <v>89406</v>
+        <v>94121</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>53</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>398672.5184773419</v>
+        <v>398696.0986209051</v>
       </c>
       <c r="R5" t="n">
-        <v>6788901.13211614</v>
+        <v>6788848.396463233</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97633014</v>
+        <v>97633007</v>
       </c>
       <c r="B6" t="n">
-        <v>94121</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>398696.0986209051</v>
+        <v>398646.143454886</v>
       </c>
       <c r="R6" t="n">
-        <v>6788848.396463233</v>
+        <v>6788857.068735377</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97633007</v>
+        <v>97633016</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>78603</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>398646.143454886</v>
+        <v>398669.6522660756</v>
       </c>
       <c r="R7" t="n">
-        <v>6788857.068735377</v>
+        <v>6788902.178847552</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97633016</v>
+        <v>97633012</v>
       </c>
       <c r="B8" t="n">
-        <v>78603</v>
+        <v>89406</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6464</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>398669.6522660756</v>
+        <v>398699.9434737806</v>
       </c>
       <c r="R8" t="n">
-        <v>6788902.178847552</v>
+        <v>6788847.803485386</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97633012</v>
+        <v>97633013</v>
       </c>
       <c r="B9" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>398699.9434737806</v>
+        <v>398510.0508583009</v>
       </c>
       <c r="R9" t="n">
-        <v>6788847.803485386</v>
+        <v>6788941.975751169</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 6359-2021.xlsx
+++ b/artfynd/A 6359-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97633008</v>
+        <v>97633011</v>
       </c>
       <c r="B2" t="n">
-        <v>96354</v>
+        <v>76863</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221952</v>
+        <v>498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Liten sotlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Acolium karelicum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Vain.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>398956.7786445262</v>
+        <v>398704.3123741738</v>
       </c>
       <c r="R2" t="n">
-        <v>6788881.850361901</v>
+        <v>6788848.641365388</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97633011</v>
+        <v>97633008</v>
       </c>
       <c r="B3" t="n">
-        <v>76863</v>
+        <v>96354</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liten sotlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Acolium karelicum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) M.Prieto &amp; Wedin</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>398704.3123741738</v>
+        <v>398956.7786445262</v>
       </c>
       <c r="R3" t="n">
-        <v>6788848.641365388</v>
+        <v>6788881.850361901</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97633015</v>
+        <v>97633013</v>
       </c>
       <c r="B4" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>398672.5184773419</v>
+        <v>398510.0508583009</v>
       </c>
       <c r="R4" t="n">
-        <v>6788901.13211614</v>
+        <v>6788941.975751169</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97633014</v>
+        <v>97633015</v>
       </c>
       <c r="B5" t="n">
-        <v>94121</v>
+        <v>89406</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>398696.0986209051</v>
+        <v>398672.5184773419</v>
       </c>
       <c r="R5" t="n">
-        <v>6788848.396463233</v>
+        <v>6788901.13211614</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97633007</v>
+        <v>97633014</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>94121</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>398646.143454886</v>
+        <v>398696.0986209051</v>
       </c>
       <c r="R6" t="n">
-        <v>6788857.068735377</v>
+        <v>6788848.396463233</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97633016</v>
+        <v>97633007</v>
       </c>
       <c r="B7" t="n">
-        <v>78603</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>398669.6522660756</v>
+        <v>398646.143454886</v>
       </c>
       <c r="R7" t="n">
-        <v>6788902.178847552</v>
+        <v>6788857.068735377</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97633012</v>
+        <v>97633016</v>
       </c>
       <c r="B8" t="n">
-        <v>89406</v>
+        <v>78603</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>6464</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>398699.9434737806</v>
+        <v>398669.6522660756</v>
       </c>
       <c r="R8" t="n">
-        <v>6788847.803485386</v>
+        <v>6788902.178847552</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97633013</v>
+        <v>97633012</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>398510.0508583009</v>
+        <v>398699.9434737806</v>
       </c>
       <c r="R9" t="n">
-        <v>6788941.975751169</v>
+        <v>6788847.803485386</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
